--- a/DogBone_DB4_DB5.xlsx
+++ b/DogBone_DB4_DB5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\TeensyDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35BCB89-70DA-4555-BB25-A6B6F20679C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E25AC-E07D-499E-BE87-A8C378C72769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="3315" windowWidth="26010" windowHeight="16950" tabRatio="400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="2655" windowWidth="35355" windowHeight="16950" tabRatio="400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Mux" sheetId="4" r:id="rId4"/>
     <sheet name="DB5 Card like" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1086">
   <si>
     <t>B0_01</t>
   </si>
@@ -3502,6 +3505,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -4801,10 +4810,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>32549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>632097</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4827,8 +4836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9782734" y="0"/>
-          <a:ext cx="4907109" cy="8729382"/>
+          <a:off x="10118911" y="0"/>
+          <a:ext cx="4856715" cy="8639735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4838,6 +4847,46 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="T4"/>
+      <sheetName val="T4 - GPIO "/>
+      <sheetName val="T4 card like"/>
+      <sheetName val="T4.1"/>
+      <sheetName val="T4.1 MUX"/>
+      <sheetName val="T4.1 - GPIO"/>
+      <sheetName val="T4.1 card like"/>
+      <sheetName val="Micromod"/>
+      <sheetName val="MMod OV757x"/>
+      <sheetName val="MicroMod - Mux"/>
+      <sheetName val="MicroMod - GPIO"/>
+      <sheetName val="Micromod - MM Pin"/>
+      <sheetName val="MicroMod Function Boards"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5180,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9552,8 +9601,8 @@
   </sheetPr>
   <dimension ref="A2:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:L81"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12885,7 +12934,7 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14518,13 +14567,15 @@
       <c r="AI31" s="29"/>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" s="133">
-        <v>1.2</v>
+      <c r="A32" s="133" t="s">
+        <v>1085</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="49" t="s">
+        <v>174</v>
+      </c>
       <c r="D32" s="48" t="s">
         <v>147</v>
       </c>
@@ -14534,17 +14585,19 @@
       <c r="F32" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="48" t="s">
+        <v>174</v>
+      </c>
       <c r="H32" s="48" t="s">
         <v>45</v>
       </c>
       <c r="I32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="28" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="M32" s="130" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="V32" s="137">
         <v>58</v>
@@ -14574,13 +14627,15 @@
       <c r="AI32" s="29"/>
     </row>
     <row r="33" spans="1:35" ht="17.25" customHeight="1">
-      <c r="A33" s="134">
-        <v>1.3</v>
+      <c r="A33" s="134" t="s">
+        <v>1084</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="53" t="s">
+        <v>174</v>
+      </c>
       <c r="D33" s="52" t="s">
         <v>143</v>
       </c>
@@ -14590,7 +14645,9 @@
       <c r="F33" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="52" t="s">
+        <v>174</v>
+      </c>
       <c r="H33" s="52" t="s">
         <v>44</v>
       </c>
@@ -14598,10 +14655,10 @@
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
       <c r="L33" s="28" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="M33" s="130" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="V33" s="137">
         <v>59</v>
